--- a/applications/us_states/Columbus_projections.xlsx
+++ b/applications/us_states/Columbus_projections.xlsx
@@ -520,76 +520,76 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>116037</v>
+        <v>60250</v>
       </c>
       <c r="B4">
-        <v>32429</v>
+        <v>11181</v>
       </c>
       <c r="C4">
-        <v>191803</v>
+        <v>126892</v>
       </c>
       <c r="D4">
-        <v>8.502968296280581</v>
+        <v>4.415023487107064</v>
       </c>
       <c r="E4">
-        <v>2.376396244544781</v>
+        <v>0.8193878517244749</v>
       </c>
       <c r="F4">
-        <v>14.05498133822769</v>
+        <v>9.29842255875332</v>
       </c>
       <c r="G4">
-        <v>263558</v>
+        <v>0.2363384724149416</v>
       </c>
       <c r="H4">
-        <v>121568</v>
+        <v>0.08512938799278082</v>
       </c>
       <c r="I4">
-        <v>381700</v>
+        <v>0.3385016569214514</v>
       </c>
       <c r="J4">
-        <v>0.2691458262613222</v>
+        <v>0.1415727584975331</v>
       </c>
       <c r="K4">
-        <v>0.1286625110248414</v>
+        <v>0.0724565009258427</v>
       </c>
       <c r="L4">
-        <v>0.3709053118617521</v>
+        <v>0.2527275740391631</v>
       </c>
       <c r="M4">
-        <v>104423</v>
+        <v>125973</v>
       </c>
       <c r="N4">
-        <v>40127</v>
+        <v>13263</v>
       </c>
       <c r="O4">
-        <v>117176</v>
+        <v>194670</v>
       </c>
       <c r="P4">
-        <v>7.999789116266761</v>
+        <v>9.650647125870528</v>
       </c>
       <c r="Q4">
-        <v>3.074102925140004</v>
+        <v>1.01610534491522</v>
       </c>
       <c r="R4">
-        <v>8.976728719228804</v>
+        <v>14.91350116887804</v>
       </c>
       <c r="S4">
-        <v>257091</v>
+        <v>0.2994429132643171</v>
       </c>
       <c r="T4">
-        <v>120182</v>
+        <v>0.07833578680451396</v>
       </c>
       <c r="U4">
-        <v>326791</v>
+        <v>0.4675508886010589</v>
       </c>
       <c r="V4">
-        <v>0.3927023377837318</v>
+        <v>0.3231122866871788</v>
       </c>
       <c r="W4">
-        <v>0.1799137796405046</v>
+        <v>0.08778803241880449</v>
       </c>
       <c r="X4">
-        <v>0.5055284466707408</v>
+        <v>0.4891233426515225</v>
       </c>
     </row>
   </sheetData>

--- a/applications/us_states/Columbus_projections.xlsx
+++ b/applications/us_states/Columbus_projections.xlsx
@@ -520,76 +520,76 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>60250</v>
+        <v>68106</v>
       </c>
       <c r="B4">
-        <v>11181</v>
+        <v>15866</v>
       </c>
       <c r="C4">
-        <v>126892</v>
+        <v>190823</v>
       </c>
       <c r="D4">
-        <v>4.415023487107064</v>
+        <v>4.990712893482018</v>
       </c>
       <c r="E4">
-        <v>0.8193878517244749</v>
+        <v>1.162691406413288</v>
       </c>
       <c r="F4">
-        <v>9.29842255875332</v>
+        <v>13.98315554044391</v>
       </c>
       <c r="G4">
-        <v>0.2363384724149416</v>
+        <v>0.2268610246514274</v>
       </c>
       <c r="H4">
-        <v>0.08512938799278082</v>
+        <v>0.09073000636091837</v>
       </c>
       <c r="I4">
-        <v>0.3385016569214514</v>
+        <v>0.3633113856344746</v>
       </c>
       <c r="J4">
-        <v>0.1415727584975331</v>
+        <v>0.1597690615287486</v>
       </c>
       <c r="K4">
-        <v>0.0724565009258427</v>
+        <v>0.08501884384359548</v>
       </c>
       <c r="L4">
-        <v>0.2527275740391631</v>
+        <v>0.3124829421561445</v>
       </c>
       <c r="M4">
-        <v>125973</v>
+        <v>134588</v>
       </c>
       <c r="N4">
-        <v>13263</v>
+        <v>15015</v>
       </c>
       <c r="O4">
-        <v>194670</v>
+        <v>164420</v>
       </c>
       <c r="P4">
-        <v>9.650647125870528</v>
+        <v>10.31064163926744</v>
       </c>
       <c r="Q4">
-        <v>1.01610534491522</v>
+        <v>1.15028430274811</v>
       </c>
       <c r="R4">
-        <v>14.91350116887804</v>
+        <v>12.59604532416034</v>
       </c>
       <c r="S4">
-        <v>0.2994429132643171</v>
+        <v>0.3366237278680254</v>
       </c>
       <c r="T4">
-        <v>0.07833578680451396</v>
+        <v>0.08434154651765148</v>
       </c>
       <c r="U4">
-        <v>0.4675508886010589</v>
+        <v>0.5047625622001569</v>
       </c>
       <c r="V4">
-        <v>0.3231122866871788</v>
+        <v>0.3333641021876519</v>
       </c>
       <c r="W4">
-        <v>0.08778803241880449</v>
+        <v>0.1022522525523415</v>
       </c>
       <c r="X4">
-        <v>0.4891233426515225</v>
+        <v>0.500425857515695</v>
       </c>
     </row>
   </sheetData>
